--- a/Dev/Files/Siebel Service/ITAF_DataBank_Service_MSPatch.xlsx
+++ b/Dev/Files/Siebel Service/ITAF_DataBank_Service_MSPatch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="169">
   <si>
     <t>TC_ID</t>
   </si>
@@ -523,6 +523,9 @@
   </si>
   <si>
     <t>1-G9MHVB</t>
+  </si>
+  <si>
+    <t>MS Patching 15Feb2019 Please Ignore</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1581,7 +1584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:56" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>62</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>55</v>
@@ -1631,7 +1634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:56" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>62</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>55</v>
@@ -1681,7 +1684,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:56" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>73</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>162</v>
@@ -1731,7 +1734,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:56" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1757,7 +1760,7 @@
         <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>166</v>

--- a/Dev/Files/Siebel Service/ITAF_DataBank_Service_MSPatch.xlsx
+++ b/Dev/Files/Siebel Service/ITAF_DataBank_Service_MSPatch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
   <si>
     <t>TC_ID</t>
   </si>
@@ -495,9 +495,6 @@
     <t>art.cognizant2@gmail.com</t>
   </si>
   <si>
-    <t>Test SR creation Automation POC Please Ignore</t>
-  </si>
-  <si>
     <t>art.cognizant6@gmail.com</t>
   </si>
   <si>
@@ -525,7 +522,7 @@
     <t>1-G9MHVB</t>
   </si>
   <si>
-    <t>MS Patching 15Feb2019 Please Ignore</t>
+    <t>MS Patching 15Mar2019 Please Ignore</t>
   </si>
 </sst>
 </file>
@@ -1400,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>7</v>
@@ -1610,7 +1607,7 @@
         <v>62</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>55</v>
@@ -1660,7 +1657,7 @@
         <v>62</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>55</v>
@@ -1689,7 +1686,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -1710,19 +1707,19 @@
         <v>73</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P4" t="s">
         <v>75</v>
@@ -1754,28 +1751,28 @@
         <v>101</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>55</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P5" t="s">
         <v>59</v>
@@ -1787,7 +1784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:56" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>68</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>69</v>

--- a/Dev/Files/Siebel Service/ITAF_DataBank_Service_MSPatch.xlsx
+++ b/Dev/Files/Siebel Service/ITAF_DataBank_Service_MSPatch.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="168">
   <si>
     <t>TC_ID</t>
   </si>
@@ -324,9 +324,6 @@
     <t>SANUMOLU</t>
   </si>
   <si>
-    <t>P@ssw0rd@24</t>
-  </si>
-  <si>
     <t>C375037</t>
   </si>
   <si>
@@ -522,7 +519,10 @@
     <t>1-G9MHVB</t>
   </si>
   <si>
-    <t>MS Patching 15Mar2019 Please Ignore</t>
+    <t>P@ssw0rd@27</t>
+  </si>
+  <si>
+    <t>Emergency release fix 06Apr2019 Please Ignore</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>7</v>
@@ -1581,9 +1581,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:56" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>95</v>
@@ -1598,10 +1598,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>62</v>
@@ -1631,9 +1631,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:56" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>96</v>
@@ -1648,10 +1648,10 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>62</v>
@@ -1681,12 +1681,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:56" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -1698,10 +1698,10 @@
         <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>73</v>
@@ -1710,16 +1710,16 @@
         <v>167</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>57</v>
       </c>
       <c r="N4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P4" t="s">
         <v>75</v>
@@ -1731,9 +1731,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:56" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>98</v>
@@ -1748,10 +1748,10 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>74</v>
@@ -1760,19 +1760,19 @@
         <v>167</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>55</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P5" t="s">
         <v>59</v>
@@ -1784,9 +1784,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:56" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>97</v>
@@ -1801,10 +1801,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>68</v>
@@ -1825,196 +1825,199 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>108</v>
+      <c r="I7" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:56" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:56" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="58" spans="51:52" x14ac:dyDescent="0.35">
@@ -2135,15 +2138,15 @@
     <hyperlink ref="D3" r:id="rId3"/>
     <hyperlink ref="D4" r:id="rId4"/>
     <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="F3" r:id="rId6"/>
-    <hyperlink ref="F4" r:id="rId7"/>
-    <hyperlink ref="F5" r:id="rId8"/>
-    <hyperlink ref="G2" r:id="rId9"/>
-    <hyperlink ref="G3" r:id="rId10" display="mailto:art.cognizant52@gmail.com"/>
-    <hyperlink ref="G4" r:id="rId11"/>
-    <hyperlink ref="G5" r:id="rId12"/>
-    <hyperlink ref="G6" r:id="rId13"/>
-    <hyperlink ref="D6" r:id="rId14"/>
+    <hyperlink ref="G2" r:id="rId6"/>
+    <hyperlink ref="G3" r:id="rId7" display="mailto:art.cognizant52@gmail.com"/>
+    <hyperlink ref="G4" r:id="rId8"/>
+    <hyperlink ref="G5" r:id="rId9"/>
+    <hyperlink ref="G6" r:id="rId10"/>
+    <hyperlink ref="D6" r:id="rId11"/>
+    <hyperlink ref="F3" r:id="rId12"/>
+    <hyperlink ref="F4" r:id="rId13"/>
+    <hyperlink ref="F5" r:id="rId14"/>
     <hyperlink ref="F6" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
